--- a/data/trans_orig/P6702-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>54729</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42282</v>
+        <v>42536</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70919</v>
+        <v>68902</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2035026911393168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.157220311142247</v>
+        <v>0.1581644398123318</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2637017286238889</v>
+        <v>0.2562020390338484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -764,19 +764,19 @@
         <v>31310</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22041</v>
+        <v>21245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44123</v>
+        <v>42112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.195276175767734</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1374685385817825</v>
+        <v>0.132504912123831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.275188332669449</v>
+        <v>0.2626512727936297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -785,19 +785,19 @@
         <v>86039</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69823</v>
+        <v>67125</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105037</v>
+        <v>102456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2004300352659111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1626543491023872</v>
+        <v>0.1563690130682513</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2446847427299355</v>
+        <v>0.2386721573113944</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>49624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36674</v>
+        <v>37818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>64746</v>
+        <v>63936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1845190485843937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.136366993895719</v>
+        <v>0.1406185213160434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2407476409679115</v>
+        <v>0.2377373746423272</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -835,19 +835,19 @@
         <v>38643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28342</v>
+        <v>27731</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49717</v>
+        <v>49320</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2410095859014228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1767661500927679</v>
+        <v>0.1729576663536406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3100784679663957</v>
+        <v>0.3076039888100826</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -856,19 +856,19 @@
         <v>88267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73123</v>
+        <v>71146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107283</v>
+        <v>107666</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2056186239743098</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1703409308360068</v>
+        <v>0.1657357182846996</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2499169674417484</v>
+        <v>0.2508093506979833</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>87134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72915</v>
+        <v>71788</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105019</v>
+        <v>101565</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3239953620591314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2711239713458844</v>
+        <v>0.2669327644006889</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3904952651261795</v>
+        <v>0.3776523589197548</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -906,19 +906,19 @@
         <v>53313</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41647</v>
+        <v>41595</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66254</v>
+        <v>66079</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3325063332548168</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2597482872495278</v>
+        <v>0.2594253150753266</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4132187465268302</v>
+        <v>0.4121252872433501</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -927,19 +927,19 @@
         <v>140447</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>119921</v>
+        <v>121635</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>162548</v>
+        <v>161063</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3271742639941044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.279357902267747</v>
+        <v>0.2833498180328583</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3786575018586479</v>
+        <v>0.3751982931652347</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>58760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46720</v>
+        <v>46775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73690</v>
+        <v>73667</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2184891301665134</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.173721368898354</v>
+        <v>0.173924466533912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.274006227248392</v>
+        <v>0.2739199279705894</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -977,19 +977,19 @@
         <v>23684</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15670</v>
+        <v>16013</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34618</v>
+        <v>33855</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1477137873624668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09772916989026001</v>
+        <v>0.09986914500001809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2159071724468483</v>
+        <v>0.2111509849112412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -998,19 +998,19 @@
         <v>82444</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67889</v>
+        <v>67750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100475</v>
+        <v>100882</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1920540889690744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1581492984238674</v>
+        <v>0.1578241926449769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2340578515586169</v>
+        <v>0.2350058266181127</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>18689</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11225</v>
+        <v>11387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29266</v>
+        <v>28865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06949376805064469</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04173668564330198</v>
+        <v>0.04234121562354944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1088210771314992</v>
+        <v>0.1073293047631341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1048,19 +1048,19 @@
         <v>13387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8036</v>
+        <v>7003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22409</v>
+        <v>21021</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08349411771355952</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05012209814567613</v>
+        <v>0.04368009398923248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1397625438184325</v>
+        <v>0.1311084537852504</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -1069,19 +1069,19 @@
         <v>32077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22213</v>
+        <v>21835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>45044</v>
+        <v>44477</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07472298779660042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05174434972978285</v>
+        <v>0.05086600985415846</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1049316609691875</v>
+        <v>0.1036092754951402</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>75181</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58982</v>
+        <v>59945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92616</v>
+        <v>92417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1840566413630084</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1443988248960902</v>
+        <v>0.1467578184896599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2267416416758609</v>
+        <v>0.2262539524998913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -1194,19 +1194,19 @@
         <v>59812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46184</v>
+        <v>45124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74534</v>
+        <v>73950</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2202532625749991</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1700674121861024</v>
+        <v>0.1661658069908055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2744653681348314</v>
+        <v>0.2723155035282981</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -1215,19 +1215,19 @@
         <v>134993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112876</v>
+        <v>114419</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>157095</v>
+        <v>160994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1985113567216865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.165987929939406</v>
+        <v>0.1682569292439258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2310138285949679</v>
+        <v>0.2367467707560034</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>53132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41127</v>
+        <v>40427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68532</v>
+        <v>68803</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1300771304535557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1006873352190873</v>
+        <v>0.09897352718648743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1677802625488338</v>
+        <v>0.1684425646570769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -1265,19 +1265,19 @@
         <v>41545</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30713</v>
+        <v>29980</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55115</v>
+        <v>55159</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.152987715576792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1130995394501565</v>
+        <v>0.110398469646852</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2029586703505321</v>
+        <v>0.2031188292006341</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>86</v>
@@ -1286,19 +1286,19 @@
         <v>94677</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>76682</v>
+        <v>75929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113236</v>
+        <v>115689</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1392262160744931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1127628391185502</v>
+        <v>0.111655821895785</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1665170575760411</v>
+        <v>0.1701246207589458</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>134531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115091</v>
+        <v>117315</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>153337</v>
+        <v>155335</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3293585746395025</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2817656894836663</v>
+        <v>0.2872089893333256</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3753970058802378</v>
+        <v>0.380289622472379</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>83</v>
@@ -1336,19 +1336,19 @@
         <v>90633</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76514</v>
+        <v>75643</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108177</v>
+        <v>107670</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3337502347131004</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2817584834121977</v>
+        <v>0.2785512028462138</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3983522927860829</v>
+        <v>0.3964884326233552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>208</v>
@@ -1357,19 +1357,19 @@
         <v>225165</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>201670</v>
+        <v>197238</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>250709</v>
+        <v>250851</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3311123349129863</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2965622243486942</v>
+        <v>0.2900446179353904</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3686762146673335</v>
+        <v>0.3688851290758394</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>89685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72779</v>
+        <v>74426</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107697</v>
+        <v>108132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2195671393437518</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1781776452627255</v>
+        <v>0.1822092920947813</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2636615476460328</v>
+        <v>0.2647275304770829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1407,19 +1407,19 @@
         <v>49709</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37045</v>
+        <v>37761</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64022</v>
+        <v>65290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1830486495752606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1364149731270718</v>
+        <v>0.1390522257791892</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2357552901993716</v>
+        <v>0.2404262626632469</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -1428,19 +1428,19 @@
         <v>139394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119745</v>
+        <v>117518</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165449</v>
+        <v>160513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2049838893812533</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1760886686372913</v>
+        <v>0.1728142699470717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2432982999809171</v>
+        <v>0.2360401488219907</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>55935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42464</v>
+        <v>42686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72545</v>
+        <v>71489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1369405142001816</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1039609109739006</v>
+        <v>0.1045034275276198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.177603589310756</v>
+        <v>0.1750189322161591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1478,19 +1478,19 @@
         <v>29861</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20527</v>
+        <v>21620</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42413</v>
+        <v>43211</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1099601375598478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0755877773615016</v>
+        <v>0.07961468054664222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.156182171641849</v>
+        <v>0.1591205459950858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>77</v>
@@ -1499,19 +1499,19 @@
         <v>85796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68301</v>
+        <v>69020</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>105131</v>
+        <v>106184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1261662029095809</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1004385641603065</v>
+        <v>0.1014962169847726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1545981906291896</v>
+        <v>0.1561478584578766</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>40786</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29656</v>
+        <v>28940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53121</v>
+        <v>53961</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1269127185274084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09228029877710549</v>
+        <v>0.09005220691837416</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1652943228689114</v>
+        <v>0.1679094731207877</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1624,19 +1624,19 @@
         <v>46288</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34700</v>
+        <v>34636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59742</v>
+        <v>59866</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2171725876890906</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1628020684785648</v>
+        <v>0.1625032838009047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2802949597327786</v>
+        <v>0.280874660019105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -1645,19 +1645,19 @@
         <v>87075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71019</v>
+        <v>69514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107514</v>
+        <v>106618</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1629045161003423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1328670563289602</v>
+        <v>0.1300505477781264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2011438722021467</v>
+        <v>0.1994668519431947</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>47501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34069</v>
+        <v>34417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61971</v>
+        <v>61840</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1478064204012341</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1060107677533879</v>
+        <v>0.1070937257431332</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1928326350798387</v>
+        <v>0.1924257245563318</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1695,19 +1695,19 @@
         <v>27476</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17859</v>
+        <v>18008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37929</v>
+        <v>38993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1289113509795866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08378971004775707</v>
+        <v>0.08448856504589876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1779522211830705</v>
+        <v>0.1829427742542289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>65</v>
@@ -1716,19 +1716,19 @@
         <v>74977</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58899</v>
+        <v>59412</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>95117</v>
+        <v>93534</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1402718702177825</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.110192485984024</v>
+        <v>0.1111505262035314</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1779510305874943</v>
+        <v>0.1749884184182437</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>102657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85686</v>
+        <v>86350</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122381</v>
+        <v>123227</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3194346335616755</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2666243074260211</v>
+        <v>0.2686915531412226</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3808078726590926</v>
+        <v>0.3834408939340652</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -1766,19 +1766,19 @@
         <v>60091</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46514</v>
+        <v>46859</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75411</v>
+        <v>73100</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2819325756317035</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.218233454768012</v>
+        <v>0.2198474310617298</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3538067920283314</v>
+        <v>0.3429666170224692</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -1787,19 +1787,19 @@
         <v>162749</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139953</v>
+        <v>141206</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>186715</v>
+        <v>186542</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3044804076125313</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2618329462042314</v>
+        <v>0.2641763760602644</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3493171907415051</v>
+        <v>0.3489944686398898</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>65021</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50697</v>
+        <v>50724</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81490</v>
+        <v>79888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2023216760422826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1577520428272317</v>
+        <v>0.157836652726784</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2535687128840858</v>
+        <v>0.2485845451860837</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>34</v>
@@ -1837,19 +1837,19 @@
         <v>38945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28212</v>
+        <v>28222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52253</v>
+        <v>52363</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1827193385170389</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1323651043854691</v>
+        <v>0.1324092169479132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2451569397757296</v>
+        <v>0.2456730729418355</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>96</v>
@@ -1858,19 +1858,19 @@
         <v>103966</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83165</v>
+        <v>84985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>122577</v>
+        <v>125233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.194505097415284</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1555896521896828</v>
+        <v>0.1589956785857789</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2293235077577438</v>
+        <v>0.2342931753681488</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>65407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50689</v>
+        <v>51752</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>80650</v>
+        <v>83375</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2035245514673994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1577277276386043</v>
+        <v>0.161034713833271</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2509551669475601</v>
+        <v>0.2594357218751791</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1908,19 +1908,19 @@
         <v>40340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>29948</v>
+        <v>29194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>54157</v>
+        <v>53984</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1892641471825803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1405066945037914</v>
+        <v>0.1369721869047068</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2540922050134018</v>
+        <v>0.2532775588800983</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>93</v>
@@ -1929,19 +1929,19 @@
         <v>105747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87069</v>
+        <v>87165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>127237</v>
+        <v>127392</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.19783810865406</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1628935634769876</v>
+        <v>0.1630732362831424</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2380433022101271</v>
+        <v>0.238332660727979</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>75734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59776</v>
+        <v>61955</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92792</v>
+        <v>94511</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.18175122098521</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1434549543682891</v>
+        <v>0.1486835082366419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2226890489732737</v>
+        <v>0.2268149695239534</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -2054,19 +2054,19 @@
         <v>73684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58251</v>
+        <v>58562</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89230</v>
+        <v>89330</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2467095442491865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1950380586687281</v>
+        <v>0.1960799427296602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2987628699407159</v>
+        <v>0.299096763453755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2075,19 +2075,19 @@
         <v>149417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>128171</v>
+        <v>128496</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>171761</v>
+        <v>172153</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2088717550071382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1791720060316082</v>
+        <v>0.1796260180776122</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2401066876722193</v>
+        <v>0.2406546962076041</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>60388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>47343</v>
+        <v>47742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>75529</v>
+        <v>76119</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1449239805116752</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1136182551233055</v>
+        <v>0.1145739292775109</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1812611369080875</v>
+        <v>0.1826764453990069</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -2125,19 +2125,19 @@
         <v>43060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32220</v>
+        <v>32714</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56954</v>
+        <v>57196</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1441746180358355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1078791207457784</v>
+        <v>0.1095329691649779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1906945757825526</v>
+        <v>0.1915062955921273</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>101</v>
@@ -2146,19 +2146,19 @@
         <v>103448</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>85827</v>
+        <v>86300</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>124148</v>
+        <v>123621</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1446111166706832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1199788180724035</v>
+        <v>0.1206398999918803</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1735480001488986</v>
+        <v>0.1728105199054391</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>162348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>141373</v>
+        <v>142706</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>180983</v>
+        <v>183293</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3896145967622441</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3392775159633047</v>
+        <v>0.3424761073302434</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4343362589754495</v>
+        <v>0.4398817738645271</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -2196,19 +2196,19 @@
         <v>104208</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>88782</v>
+        <v>87789</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>121683</v>
+        <v>120905</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3489112512972251</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2972630856180261</v>
+        <v>0.2939368162533927</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4074226705024453</v>
+        <v>0.4048197753272723</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>258</v>
@@ -2217,19 +2217,19 @@
         <v>266555</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>238710</v>
+        <v>240956</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>291531</v>
+        <v>295794</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3726206780460182</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3336952507668381</v>
+        <v>0.3368353497172334</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4075350754949372</v>
+        <v>0.413494006803637</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>79974</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64857</v>
+        <v>63818</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>98285</v>
+        <v>95900</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1919275717427464</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1556480021698608</v>
+        <v>0.1531544675915529</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2358724372682061</v>
+        <v>0.2301479271781271</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2267,19 +2267,19 @@
         <v>57062</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44668</v>
+        <v>42916</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72777</v>
+        <v>71634</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1910555005765905</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1495596398988348</v>
+        <v>0.1436926542445188</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2436743827951667</v>
+        <v>0.2398458222045921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>130</v>
@@ -2288,19 +2288,19 @@
         <v>137036</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>118557</v>
+        <v>115994</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159892</v>
+        <v>161226</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1915634762035934</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.165732753694928</v>
+        <v>0.1621489093819137</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2235146821521193</v>
+        <v>0.2253799234303168</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>38245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27993</v>
+        <v>27606</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52506</v>
+        <v>50643</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0917826299981243</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06718068016554141</v>
+        <v>0.0662513572167714</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1260074334311867</v>
+        <v>0.1215378780917243</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -2338,19 +2338,19 @@
         <v>20652</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13419</v>
+        <v>13494</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30050</v>
+        <v>30392</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06914908584116243</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04493073050999093</v>
+        <v>0.04518203588062036</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1006127984413282</v>
+        <v>0.1017607595417077</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -2359,19 +2359,19 @@
         <v>58897</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46346</v>
+        <v>44686</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75428</v>
+        <v>75736</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08233297407256707</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06478769117319423</v>
+        <v>0.06246775932092426</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1054411479279186</v>
+        <v>0.1058716472450064</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>246430</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>216153</v>
+        <v>215856</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>276165</v>
+        <v>276089</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1740985186868271</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.152708284107945</v>
+        <v>0.1524983350349379</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1951057955520313</v>
+        <v>0.1950517870909875</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>194</v>
@@ -2484,19 +2484,19 @@
         <v>211094</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186108</v>
+        <v>185923</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240552</v>
+        <v>237974</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2236867624936398</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1972101398552696</v>
+        <v>0.1970143470560515</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2549023250806006</v>
+        <v>0.252170739666182</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>425</v>
@@ -2505,19 +2505,19 @@
         <v>457524</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>417481</v>
+        <v>420155</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>494585</v>
+        <v>500079</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1939345869696202</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1769613529808393</v>
+        <v>0.1780948481349521</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.209644044453437</v>
+        <v>0.2119727850144158</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>210645</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>181249</v>
+        <v>185286</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>237749</v>
+        <v>241190</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1488170583776879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1280494875584561</v>
+        <v>0.1309013552773027</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1679658188693115</v>
+        <v>0.1703962469644555</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>139</v>
@@ -2555,19 +2555,19 @@
         <v>150724</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>129279</v>
+        <v>130054</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>176442</v>
+        <v>175903</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1597157665359947</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.13699096628501</v>
+        <v>0.1378124141860756</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1869681499879935</v>
+        <v>0.1863962202960176</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>332</v>
@@ -2576,19 +2576,19 @@
         <v>361369</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>324859</v>
+        <v>327589</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>399507</v>
+        <v>396793</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1531767110418281</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1377007139348952</v>
+        <v>0.1388581342839328</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1693426077191864</v>
+        <v>0.1681922011807405</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>486671</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>450174</v>
+        <v>451261</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>520550</v>
+        <v>524113</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3438247591395452</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.318040171759042</v>
+        <v>0.3188082808667296</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3677593718766095</v>
+        <v>0.3702767859348624</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>288</v>
@@ -2626,19 +2626,19 @@
         <v>308245</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>280017</v>
+        <v>279155</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>336461</v>
+        <v>333798</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3266337323020794</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2967219126136555</v>
+        <v>0.29580853342583</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3565323107988631</v>
+        <v>0.3537108042646108</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>748</v>
@@ -2647,19 +2647,19 @@
         <v>794916</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>749999</v>
+        <v>748317</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>844038</v>
+        <v>846321</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3369480812009639</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3179086214021571</v>
+        <v>0.3171957713698899</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3577696130108832</v>
+        <v>0.3587374930485518</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>293440</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>264619</v>
+        <v>265412</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>324089</v>
+        <v>323968</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2073102137199298</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1869490064450363</v>
+        <v>0.18750880324723</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2289629895026973</v>
+        <v>0.2288779797924783</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -2697,19 +2697,19 @@
         <v>169399</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>145129</v>
+        <v>146469</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>194824</v>
+        <v>194652</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1795048538325606</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1537862921084187</v>
+        <v>0.1552070995842156</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2064468015172462</v>
+        <v>0.2062638563347709</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>437</v>
@@ -2718,19 +2718,19 @@
         <v>462839</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>423296</v>
+        <v>423109</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>503134</v>
+        <v>506426</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1961876375806692</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1794263056616922</v>
+        <v>0.1793467446018541</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2132679058232806</v>
+        <v>0.2146630916016516</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>178277</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>153152</v>
+        <v>153592</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>206186</v>
+        <v>206161</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.12594945007601</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.108199455710901</v>
+        <v>0.1085102001004065</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1456669726714445</v>
+        <v>0.1456488146437758</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>96</v>
@@ -2768,19 +2768,19 @@
         <v>104240</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>83575</v>
+        <v>88361</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>124482</v>
+        <v>128046</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1104588848357255</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08856057096973642</v>
+        <v>0.09363245071211686</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1319081636293002</v>
+        <v>0.1356841270629922</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>259</v>
@@ -2789,19 +2789,19 @@
         <v>282517</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>252063</v>
+        <v>250642</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>315029</v>
+        <v>317341</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1197529832069186</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1068441806337643</v>
+        <v>0.1062418276779153</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1335341470918916</v>
+        <v>0.1345142111266728</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>42039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31153</v>
+        <v>31636</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56399</v>
+        <v>54880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1742050572558847</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1290921481104291</v>
+        <v>0.1310946705198857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.233710100548819</v>
+        <v>0.2274140196884252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -3154,19 +3154,19 @@
         <v>43552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33410</v>
+        <v>33092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56317</v>
+        <v>54890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2651842982863038</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2034298602036731</v>
+        <v>0.2014946542431494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3429142108674222</v>
+        <v>0.3342210748463499</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -3175,19 +3175,19 @@
         <v>85591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70200</v>
+        <v>70349</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105776</v>
+        <v>103115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2110479162912307</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1730972947581495</v>
+        <v>0.1734638505342059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.260819900528684</v>
+        <v>0.2542579113667675</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>42424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32202</v>
+        <v>31224</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>56179</v>
+        <v>56603</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1757988458267099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1334418778091861</v>
+        <v>0.1293889220036366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2327965947302079</v>
+        <v>0.234556416897513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -3225,19 +3225,19 @@
         <v>31136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22558</v>
+        <v>22626</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41554</v>
+        <v>41191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1895847647982097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.137355055772986</v>
+        <v>0.1377703269374417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2530175907403963</v>
+        <v>0.2508113898031039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>74</v>
@@ -3246,19 +3246,19 @@
         <v>73560</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60186</v>
+        <v>58350</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>92420</v>
+        <v>88899</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1813815772672793</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1484056013101864</v>
+        <v>0.143878675232199</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.227886634867274</v>
+        <v>0.2192044187123707</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>91406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77221</v>
+        <v>75888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109635</v>
+        <v>105791</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.378775363119465</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3199912629315314</v>
+        <v>0.3144679276215737</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4543104002650804</v>
+        <v>0.4383819185771456</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>53</v>
@@ -3296,19 +3296,19 @@
         <v>50524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39282</v>
+        <v>39869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62240</v>
+        <v>62220</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.307640932956991</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2391889753048521</v>
+        <v>0.242760960877845</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3789745954340891</v>
+        <v>0.3788522544464506</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>140</v>
@@ -3317,19 +3317,19 @@
         <v>141931</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>122489</v>
+        <v>122052</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>160783</v>
+        <v>161334</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3499688380995495</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3020304636357797</v>
+        <v>0.3009514574302314</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3964539417322951</v>
+        <v>0.3978135568570289</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>51524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39535</v>
+        <v>39263</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64507</v>
+        <v>64127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2135092322724553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1638271166909395</v>
+        <v>0.1627006402035338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2673073209118857</v>
+        <v>0.2657345625451407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -3367,19 +3367,19 @@
         <v>32273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22193</v>
+        <v>23862</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42558</v>
+        <v>42138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1965081386023439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.135133355915152</v>
+        <v>0.1452931282161017</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2591352282847741</v>
+        <v>0.2565776681275583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -3388,19 +3388,19 @@
         <v>83797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69025</v>
+        <v>69146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99569</v>
+        <v>101351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.206624487022435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.170200708505908</v>
+        <v>0.1704980064955247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.245514805654342</v>
+        <v>0.2499072418280244</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>13927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7358</v>
+        <v>7075</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23313</v>
+        <v>23189</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05771150152548513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03049009756747037</v>
+        <v>0.02931845337424381</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09660694249246998</v>
+        <v>0.09609027649147149</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3438,19 +3438,19 @@
         <v>6747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3245</v>
+        <v>2476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13729</v>
+        <v>12755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04108186535615165</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0197561370206194</v>
+        <v>0.01507518651404068</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0835954650263535</v>
+        <v>0.07766633658229333</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3459,19 +3459,19 @@
         <v>20674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13285</v>
+        <v>12865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31172</v>
+        <v>30923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05097718131950547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03275656110873545</v>
+        <v>0.03172195244481501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07686211146048652</v>
+        <v>0.07624981658290467</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>61084</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47779</v>
+        <v>46150</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77606</v>
+        <v>77206</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1478142864902943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1156191458059653</v>
+        <v>0.1116759226503589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1877956339013506</v>
+        <v>0.1868270377103783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -3584,19 +3584,19 @@
         <v>56464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43220</v>
+        <v>43283</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70326</v>
+        <v>71614</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2070148242782112</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1584581983752141</v>
+        <v>0.1586893811848276</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2578399592213072</v>
+        <v>0.2625623573615962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -3605,19 +3605,19 @@
         <v>117547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98853</v>
+        <v>97203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>137440</v>
+        <v>138497</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1713523101550503</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1441016960569736</v>
+        <v>0.1416957666928112</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.200351402632438</v>
+        <v>0.2018921943281456</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>78190</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62839</v>
+        <v>63463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94631</v>
+        <v>97525</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1892101753942111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.152060855609206</v>
+        <v>0.1535731691263784</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2289954138607576</v>
+        <v>0.2359975627370278</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -3655,19 +3655,19 @@
         <v>42395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30289</v>
+        <v>31494</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54503</v>
+        <v>56072</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1554355299082169</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1110500037554779</v>
+        <v>0.1154687118876598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1998268711718277</v>
+        <v>0.205579634844026</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -3676,19 +3676,19 @@
         <v>120586</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99838</v>
+        <v>102596</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>140476</v>
+        <v>143030</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1757814391964745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.145536875196777</v>
+        <v>0.149556864999428</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2047771239815181</v>
+        <v>0.2085001629836166</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>151228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>131505</v>
+        <v>130759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>172038</v>
+        <v>172518</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3659517820573013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3182243992488261</v>
+        <v>0.3164188356251472</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4163079716215565</v>
+        <v>0.4174703909376206</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -3726,19 +3726,19 @@
         <v>101772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85368</v>
+        <v>88162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117827</v>
+        <v>118043</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3731318647571403</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3129899492052788</v>
+        <v>0.3232313630748967</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4319959393002339</v>
+        <v>0.432786150260603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>236</v>
@@ -3747,19 +3747,19 @@
         <v>253000</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>227453</v>
+        <v>227928</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>281548</v>
+        <v>278317</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3688065695781371</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3315661081466008</v>
+        <v>0.3322579356489421</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4104211079037529</v>
+        <v>0.4057110753600388</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>81512</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64941</v>
+        <v>64783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99651</v>
+        <v>99095</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1972483346573701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1571492677449713</v>
+        <v>0.156766020905928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.241141263732135</v>
+        <v>0.2397971166782527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -3797,19 +3797,19 @@
         <v>52789</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40928</v>
+        <v>40366</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69354</v>
+        <v>67548</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1935430639689053</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1500544570085842</v>
+        <v>0.1479971746352592</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2542759629980744</v>
+        <v>0.2476552283672526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -3818,19 +3818,19 @@
         <v>134301</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113493</v>
+        <v>110980</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156421</v>
+        <v>155099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1957751259263641</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1654424780906658</v>
+        <v>0.1617787904006503</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2280202080267099</v>
+        <v>0.2260926858134662</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>41232</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29960</v>
+        <v>30039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55813</v>
+        <v>55705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09977542140082322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07249894999284191</v>
+        <v>0.07269022224867681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1350594203640482</v>
+        <v>0.1347993833667236</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3868,19 +3868,19 @@
         <v>19331</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11574</v>
+        <v>12847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28499</v>
+        <v>28650</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07087471708752638</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04243476277587831</v>
+        <v>0.04710247397795168</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1044884616992717</v>
+        <v>0.1050395530731102</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -3889,19 +3889,19 @@
         <v>60563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47372</v>
+        <v>47094</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78451</v>
+        <v>77684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08828455514397408</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06905580817118658</v>
+        <v>0.06865084396980083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1143607016167674</v>
+        <v>0.1132422858639595</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>50241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38179</v>
+        <v>36533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65160</v>
+        <v>66185</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1384931266715884</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1052426635720713</v>
+        <v>0.1007055759345758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1796192523165541</v>
+        <v>0.1824429455324866</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>35</v>
@@ -4014,19 +4014,19 @@
         <v>35448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25821</v>
+        <v>25929</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48550</v>
+        <v>49648</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1315223329445074</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09580312737506801</v>
+        <v>0.09620368960317498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1801306049844983</v>
+        <v>0.1842063639021627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -4035,19 +4035,19 @@
         <v>85690</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69468</v>
+        <v>70115</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105275</v>
+        <v>104697</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.135521728114735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1098669029952323</v>
+        <v>0.1108895302085777</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1664968626386334</v>
+        <v>0.1655834221393944</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>58578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42934</v>
+        <v>45151</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74645</v>
+        <v>75543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1614751227282143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1183502229749655</v>
+        <v>0.1244621518483388</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2057646858632905</v>
+        <v>0.2082399577198866</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -4085,19 +4085,19 @@
         <v>42241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31644</v>
+        <v>31895</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54945</v>
+        <v>55798</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1567256954533437</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1174076839965039</v>
+        <v>0.1183394409603536</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2038578712987962</v>
+        <v>0.2070226552793457</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>91</v>
@@ -4106,19 +4106,19 @@
         <v>100820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>82731</v>
+        <v>82644</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121253</v>
+        <v>122256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1594506127652233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1308430703556309</v>
+        <v>0.130704937003285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1917662132843485</v>
+        <v>0.193353337755494</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>99179</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>82358</v>
+        <v>81917</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117394</v>
+        <v>118361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2733927119808614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2270263618002549</v>
+        <v>0.2258087116052443</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.323604272120959</v>
+        <v>0.3262701961188655</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -4156,19 +4156,19 @@
         <v>90008</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>75384</v>
+        <v>73295</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104050</v>
+        <v>103413</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3339506307365144</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2796919745728036</v>
+        <v>0.2719416500955352</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3860505126501954</v>
+        <v>0.3836887792779755</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -4177,19 +4177,19 @@
         <v>189186</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>168989</v>
+        <v>166892</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>212163</v>
+        <v>213032</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2992063738738439</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2672628250305165</v>
+        <v>0.2639464805262522</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3355455193312092</v>
+        <v>0.3369196508530209</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>105321</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88242</v>
+        <v>85874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123397</v>
+        <v>124330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.290325781979267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2432442667617815</v>
+        <v>0.236718419844145</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3401517958736948</v>
+        <v>0.3427252277065493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -4227,19 +4227,19 @@
         <v>69031</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55471</v>
+        <v>55258</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84719</v>
+        <v>85958</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.256121523233974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2058100530682113</v>
+        <v>0.2050192449932732</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3143300500962748</v>
+        <v>0.318925510946484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>158</v>
@@ -4248,19 +4248,19 @@
         <v>174352</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>150442</v>
+        <v>152198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198604</v>
+        <v>196891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2757457371446076</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2379306618911955</v>
+        <v>0.2407077300409784</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3141011641838587</v>
+        <v>0.3113907610823658</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>49450</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36626</v>
+        <v>36754</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63643</v>
+        <v>64897</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1363132566400689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1009611366947963</v>
+        <v>0.1013139345658835</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.175435615990602</v>
+        <v>0.1788928025262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -4298,19 +4298,19 @@
         <v>32796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>23133</v>
+        <v>23630</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45044</v>
+        <v>45508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1216798176316604</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08582768416288779</v>
+        <v>0.08767476101683783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1671259196587346</v>
+        <v>0.1688455183337388</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>77</v>
@@ -4319,19 +4319,19 @@
         <v>82246</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66770</v>
+        <v>66265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>101749</v>
+        <v>101324</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1300755481015902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.105599020803072</v>
+        <v>0.1048012934904796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1609196961453417</v>
+        <v>0.1602484168895503</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>78513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62574</v>
+        <v>63795</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94974</v>
+        <v>95492</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1967740307778903</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1568266726440009</v>
+        <v>0.1598868591405778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2380303310607216</v>
+        <v>0.2393285385986763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -4444,19 +4444,19 @@
         <v>66847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52365</v>
+        <v>52927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82994</v>
+        <v>82220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2053828209302759</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1608874436777724</v>
+        <v>0.1626155257033165</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2549936991909358</v>
+        <v>0.252616189184842</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -4465,19 +4465,19 @@
         <v>145360</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124212</v>
+        <v>124723</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>168855</v>
+        <v>167763</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2006415756026495</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1714513289187653</v>
+        <v>0.1721564273115095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2330716638405003</v>
+        <v>0.2315647385474119</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>75852</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61645</v>
+        <v>59573</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>92259</v>
+        <v>91616</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1901043395272063</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1544979328918093</v>
+        <v>0.1493043161275428</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2312249712531507</v>
+        <v>0.2296146928452708</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -4515,19 +4515,19 @@
         <v>57776</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45167</v>
+        <v>43676</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72794</v>
+        <v>72756</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1775128922447682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1387723339101995</v>
+        <v>0.1341916666922475</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2236561757367493</v>
+        <v>0.2235375839837714</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>130</v>
@@ -4536,19 +4536,19 @@
         <v>133628</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>114345</v>
+        <v>112798</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>156325</v>
+        <v>155531</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.184447564775887</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1578317313726217</v>
+        <v>0.1556959648843986</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2157763916682398</v>
+        <v>0.2146808450202314</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>133763</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116284</v>
+        <v>117837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>152278</v>
+        <v>152756</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3352452611300428</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2914373536302154</v>
+        <v>0.2953289014636734</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3816487661404794</v>
+        <v>0.3828471066048061</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>97</v>
@@ -4586,19 +4586,19 @@
         <v>101328</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85385</v>
+        <v>84636</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>117349</v>
+        <v>120061</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3113254298677666</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2623405945367055</v>
+        <v>0.2600394616626952</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.36054765883575</v>
+        <v>0.3688794508572881</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>230</v>
@@ -4607,19 +4607,19 @@
         <v>235092</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>208410</v>
+        <v>210982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>260798</v>
+        <v>260110</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3244991495429352</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2876698176401953</v>
+        <v>0.291220632957153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3599815990192026</v>
+        <v>0.3590321924135348</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>68619</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54365</v>
+        <v>55079</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84008</v>
+        <v>83204</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1719759568324916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1362529675933002</v>
+        <v>0.1380423274792189</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2105452755996369</v>
+        <v>0.2085296982965201</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -4657,19 +4657,19 @@
         <v>62825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>47243</v>
+        <v>48920</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77828</v>
+        <v>77775</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1930265871885125</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1451509520057826</v>
+        <v>0.1503044400817221</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2391216106061737</v>
+        <v>0.2389600570319078</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -4678,19 +4678,19 @@
         <v>131444</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>110895</v>
+        <v>110873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>153664</v>
+        <v>156195</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1814330646316387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.153068945451235</v>
+        <v>0.1530387836304729</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2121040328003006</v>
+        <v>0.2155970763187956</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>42254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31903</v>
+        <v>30903</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>55912</v>
+        <v>55813</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.105900411732369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07995691080626686</v>
+        <v>0.07745081437456826</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1401312184863104</v>
+        <v>0.1398820412556921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -4728,19 +4728,19 @@
         <v>36698</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>26320</v>
+        <v>26241</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51241</v>
+        <v>49828</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1127522697686768</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08086578633523042</v>
+        <v>0.0806231307784287</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1574344783420569</v>
+        <v>0.1530922986281482</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>76</v>
@@ -4749,19 +4749,19 @@
         <v>78952</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>63147</v>
+        <v>62596</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96394</v>
+        <v>95549</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1089786454468897</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08716307749544759</v>
+        <v>0.08640188384179022</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1330535059177482</v>
+        <v>0.1318869845421093</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>231877</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>204178</v>
+        <v>203142</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>264011</v>
+        <v>259881</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1637159969347149</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1441592188926724</v>
+        <v>0.1434280426678312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1864038083341645</v>
+        <v>0.1834879635290947</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>195</v>
@@ -4874,19 +4874,19 @@
         <v>202311</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>177111</v>
+        <v>178845</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>229011</v>
+        <v>227042</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1960408783179033</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1716223228568156</v>
+        <v>0.1733023812806761</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2219139842231718</v>
+        <v>0.220005796654822</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>404</v>
@@ -4895,19 +4895,19 @@
         <v>434188</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>396372</v>
+        <v>396447</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>474046</v>
+        <v>476049</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1773411381764914</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1618956187281392</v>
+        <v>0.1619262960194554</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1936209095399546</v>
+        <v>0.1944391158781468</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>255044</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>226028</v>
+        <v>224683</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>284888</v>
+        <v>285401</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1800731570620527</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1595861792960646</v>
+        <v>0.1586364022959</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2011444835171799</v>
+        <v>0.2015063921979406</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>172</v>
@@ -4945,19 +4945,19 @@
         <v>173548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152728</v>
+        <v>149579</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>200184</v>
+        <v>197677</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1681700114328585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1479945270154294</v>
+        <v>0.1449430227301366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1939805325433004</v>
+        <v>0.1915512375501022</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>409</v>
@@ -4966,19 +4966,19 @@
         <v>428593</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>387354</v>
+        <v>392485</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>465740</v>
+        <v>467723</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1750559061556486</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1582124113392527</v>
+        <v>0.1603078230194768</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1902285439232241</v>
+        <v>0.1910384442573141</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>475576</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>441510</v>
+        <v>442158</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>514968</v>
+        <v>517607</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3357789076133201</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3117264246921225</v>
+        <v>0.3121843210828368</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3635915534661086</v>
+        <v>0.365454459007458</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>340</v>
@@ -5016,19 +5016,19 @@
         <v>343633</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>314818</v>
+        <v>313812</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>377119</v>
+        <v>372314</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3329834617943147</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3050612312652382</v>
+        <v>0.3040867047903057</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.365431958003904</v>
+        <v>0.3607754583568744</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>790</v>
@@ -5037,19 +5037,19 @@
         <v>819209</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>773062</v>
+        <v>772088</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>868095</v>
+        <v>866703</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3346006095813437</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3157523191482673</v>
+        <v>0.3153546294038665</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3545679962765459</v>
+        <v>0.3539994961835806</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>306976</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>274901</v>
+        <v>276962</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>340099</v>
+        <v>341707</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2167395107041246</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1940929048184969</v>
+        <v>0.1955479613335865</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2401255124686613</v>
+        <v>0.241261215674916</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>208</v>
@@ -5087,19 +5087,19 @@
         <v>216918</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>192019</v>
+        <v>190375</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>245123</v>
+        <v>243686</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2101957463130285</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1860685901787947</v>
+        <v>0.1844749862284905</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2375268603338174</v>
+        <v>0.2361335751837788</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>492</v>
@@ -5108,19 +5108,19 @@
         <v>523894</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>482431</v>
+        <v>482990</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>569550</v>
+        <v>565542</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2139812727689357</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1970460605667629</v>
+        <v>0.1972742430980256</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2326289458647547</v>
+        <v>0.2309920289204423</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>146863</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>124468</v>
+        <v>124494</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172969</v>
+        <v>170184</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1036924276857878</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08788035890290266</v>
+        <v>0.08789853571113092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1221243396624207</v>
+        <v>0.1201578564676433</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -5158,19 +5158,19 @@
         <v>95572</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>76796</v>
+        <v>78182</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>114945</v>
+        <v>115347</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09260990214189495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07441581647929542</v>
+        <v>0.07575865959039262</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1113831938531421</v>
+        <v>0.1117723509290361</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>230</v>
@@ -5179,19 +5179,19 @@
         <v>242435</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>215208</v>
+        <v>213535</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>274943</v>
+        <v>273812</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09902107331758064</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08790051162433046</v>
+        <v>0.08721695239943328</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1122986445632419</v>
+        <v>0.1118369791357797</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>23731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14261</v>
+        <v>14651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37499</v>
+        <v>35235</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2428669624836905</v>
+        <v>0.2428669624836906</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1459490808691419</v>
+        <v>0.1499459027225337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.383778791464196</v>
+        <v>0.3606050555338174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -5544,19 +5544,19 @@
         <v>22015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14642</v>
+        <v>14659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30004</v>
+        <v>29960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2845973582745819</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1892871624528535</v>
+        <v>0.1895080174532408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3878790159409107</v>
+        <v>0.3873106914153665</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>46</v>
@@ -5565,19 +5565,19 @@
         <v>45746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33880</v>
+        <v>33111</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60468</v>
+        <v>60230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2613059441099693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1935274618562109</v>
+        <v>0.1891341223590801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3454014779579072</v>
+        <v>0.3440448284524492</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>24285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14874</v>
+        <v>14100</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37949</v>
+        <v>36381</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2485422404591498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1522238537782277</v>
+        <v>0.1443012250298432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3883824575257927</v>
+        <v>0.3723287444157053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -5615,19 +5615,19 @@
         <v>9178</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5352</v>
+        <v>5371</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15498</v>
+        <v>14997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1186462161455916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06918503907947218</v>
+        <v>0.06942924921062517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2003467815365737</v>
+        <v>0.193868976542611</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -5636,19 +5636,19 @@
         <v>33463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22811</v>
+        <v>23711</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49295</v>
+        <v>49901</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1911464175763208</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1303026703840502</v>
+        <v>0.1354438631409395</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.281578634612132</v>
+        <v>0.2850401768912685</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>26541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16494</v>
+        <v>17669</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38161</v>
+        <v>38697</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2716274499691859</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1688051527292075</v>
+        <v>0.1808289905645</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3905522168828656</v>
+        <v>0.3960385452483737</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -5686,19 +5686,19 @@
         <v>22064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15690</v>
+        <v>15714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29658</v>
+        <v>29406</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2852366529099221</v>
+        <v>0.2852366529099222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.202835950241262</v>
+        <v>0.2031453273075365</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3834018056468845</v>
+        <v>0.3801442281013233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -5707,19 +5707,19 @@
         <v>48605</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>37097</v>
+        <v>37189</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62530</v>
+        <v>60896</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2776408087743595</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2119066612146504</v>
+        <v>0.2124296457339172</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.35718348149326</v>
+        <v>0.3478459977239156</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>16733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9502</v>
+        <v>9795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26672</v>
+        <v>27000</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1712457618776562</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09724624563519928</v>
+        <v>0.1002399328765062</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2729665179990557</v>
+        <v>0.2763253849366647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -5757,19 +5757,19 @@
         <v>17273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10463</v>
+        <v>10708</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27072</v>
+        <v>27069</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2233000551647765</v>
+        <v>0.2233000551647766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1352659609777443</v>
+        <v>0.1384345492141532</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3499797182196183</v>
+        <v>0.349932873300199</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -5778,19 +5778,19 @@
         <v>34006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23451</v>
+        <v>23737</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48386</v>
+        <v>45805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1942464581159517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1339587983407768</v>
+        <v>0.1355897979382289</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2763902683228895</v>
+        <v>0.2616444125600672</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>6421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1255</v>
+        <v>1189</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23413</v>
+        <v>21093</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06571758521031743</v>
+        <v>0.06571758521031744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01284662411657322</v>
+        <v>0.01216638660032893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.239616281816712</v>
+        <v>0.215873419106154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -5828,19 +5828,19 @@
         <v>6824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2340</v>
+        <v>2675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16079</v>
+        <v>15281</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08821971750512783</v>
+        <v>0.08821971750512786</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03024439896493132</v>
+        <v>0.03458159709230049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2078619420259126</v>
+        <v>0.1975479664502182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -5849,19 +5849,19 @@
         <v>13245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5851</v>
+        <v>5842</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28592</v>
+        <v>27293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07566037142339878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03342028668392583</v>
+        <v>0.03337066605866307</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1633203652428414</v>
+        <v>0.1558995061574781</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>35103</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24962</v>
+        <v>23829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48394</v>
+        <v>48549</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2065192254722479</v>
+        <v>0.2065192254722478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1468549449004117</v>
+        <v>0.1401927667977785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2847109120703292</v>
+        <v>0.2856244023257007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -5974,19 +5974,19 @@
         <v>22106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15553</v>
+        <v>14688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30986</v>
+        <v>31246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1785300786474069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1256078667694099</v>
+        <v>0.1186247406800646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2502471461705578</v>
+        <v>0.2523437098785526</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -5995,19 +5995,19 @@
         <v>57209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43885</v>
+        <v>44693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73677</v>
+        <v>74033</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1947230471520805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1493713487776578</v>
+        <v>0.1521229897217052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2507747151791786</v>
+        <v>0.2519852722745986</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>13568</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7294</v>
+        <v>7944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22506</v>
+        <v>22007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07982538255855752</v>
+        <v>0.07982538255855751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04291070836381027</v>
+        <v>0.04673728463943581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.132407869963515</v>
+        <v>0.1294734354681002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -6045,19 +6045,19 @@
         <v>16902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10722</v>
+        <v>10464</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24669</v>
+        <v>25337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1365008608044576</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08658765514170894</v>
+        <v>0.08450875411876324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1992247952817177</v>
+        <v>0.2046259020176321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -6066,19 +6066,19 @@
         <v>30470</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21460</v>
+        <v>21172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>42216</v>
+        <v>42443</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1037115714428878</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07304300399703609</v>
+        <v>0.07206462653168345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1436899937010654</v>
+        <v>0.1444632308246405</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>72665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>58257</v>
+        <v>57644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86075</v>
+        <v>87129</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4275019341756278</v>
+        <v>0.4275019341756277</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3427395125285182</v>
+        <v>0.339129563357474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5064000659737127</v>
+        <v>0.5126002998233811</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -6116,19 +6116,19 @@
         <v>41792</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33067</v>
+        <v>32726</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>51722</v>
+        <v>51215</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3375180414881717</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2670501285531356</v>
+        <v>0.2642985453434192</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4177097036854359</v>
+        <v>0.4136159120435463</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -6137,19 +6137,19 @@
         <v>114457</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97566</v>
+        <v>97661</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>131758</v>
+        <v>131995</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3895777326725664</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3320856012302068</v>
+        <v>0.3324102530659259</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4484647826077245</v>
+        <v>0.4492711239832888</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>36476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25729</v>
+        <v>25739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51064</v>
+        <v>49856</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2145985409356484</v>
+        <v>0.2145985409356483</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1513708631497962</v>
+        <v>0.1514305169174321</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.300419642098499</v>
+        <v>0.2933149018567742</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -6187,19 +6187,19 @@
         <v>29103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20477</v>
+        <v>20099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38093</v>
+        <v>37792</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2350362031236506</v>
+        <v>0.2350362031236507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1653723193265824</v>
+        <v>0.1623167759448597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3076402462401172</v>
+        <v>0.3052123252602442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -6208,19 +6208,19 @@
         <v>65579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51917</v>
+        <v>51216</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80863</v>
+        <v>80370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2232121049405021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1767100434861532</v>
+        <v>0.1743253290542319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2752341149240659</v>
+        <v>0.2735566121984139</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>12163</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5880</v>
+        <v>5213</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24306</v>
+        <v>22804</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07155491685791866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03459621045268164</v>
+        <v>0.03066906264986535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1429969615207677</v>
+        <v>0.1341598117077725</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -6261,16 +6261,16 @@
         <v>8580</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21713</v>
+        <v>20092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1124148159363131</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06929408169884571</v>
+        <v>0.06929293383027903</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1753591751491468</v>
+        <v>0.1622638391454161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -6279,19 +6279,19 @@
         <v>26082</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16912</v>
+        <v>17008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37847</v>
+        <v>37448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08877554379196317</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05756387773110848</v>
+        <v>0.05788936534395739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1288198471224075</v>
+        <v>0.1274605883094062</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>17266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9535</v>
+        <v>10148</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26406</v>
+        <v>27721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1871874127048294</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.103373898821394</v>
+        <v>0.1100184126908507</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2862839206115051</v>
+        <v>0.3005447366307074</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -6404,19 +6404,19 @@
         <v>23347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16406</v>
+        <v>16430</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32448</v>
+        <v>31408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2567733980940968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1804372072998353</v>
+        <v>0.1806947463866327</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3568688259694378</v>
+        <v>0.3454326420205436</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -6425,19 +6425,19 @@
         <v>40613</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29262</v>
+        <v>30145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52947</v>
+        <v>54468</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2217312803948698</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1597592488794934</v>
+        <v>0.1645800879626934</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2890709462677887</v>
+        <v>0.2973735423864944</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>15615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8168</v>
+        <v>8499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26768</v>
+        <v>26484</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1692953392492658</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0885595384316904</v>
+        <v>0.09214532664741051</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2902091806298843</v>
+        <v>0.2871306373200109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -6475,19 +6475,19 @@
         <v>9311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4664</v>
+        <v>4703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16351</v>
+        <v>16065</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1023977681278441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0512922930775198</v>
+        <v>0.05172882140260087</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.179832820894096</v>
+        <v>0.1766830567660229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -6496,19 +6496,19 @@
         <v>24926</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16265</v>
+        <v>15833</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36683</v>
+        <v>36800</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.136086053892794</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08879909120309773</v>
+        <v>0.0864448421047921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2002771814164161</v>
+        <v>0.2009160947681894</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>35741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23852</v>
+        <v>24702</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47487</v>
+        <v>48426</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3874879073422599</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2586001175373908</v>
+        <v>0.2678079652414085</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5148406857607741</v>
+        <v>0.5250132197838522</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>42</v>
@@ -6546,19 +6546,19 @@
         <v>33401</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25260</v>
+        <v>24666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41542</v>
+        <v>41914</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3673468109886883</v>
+        <v>0.3673468109886884</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2778086948896256</v>
+        <v>0.2712772600986788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.456884826531903</v>
+        <v>0.4609696401411917</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -6567,19 +6567,19 @@
         <v>69142</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54624</v>
+        <v>55296</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>84197</v>
+        <v>84658</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.377489466367715</v>
+        <v>0.3774894663677151</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2982266027716863</v>
+        <v>0.30189671859637</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4596843952272866</v>
+        <v>0.4622046351317113</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>18373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11032</v>
+        <v>10830</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>30247</v>
+        <v>28335</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1991883698831461</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.119609831344085</v>
+        <v>0.1174193883160646</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3279315322762548</v>
+        <v>0.3071973824151141</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -6617,19 +6617,19 @@
         <v>19389</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12833</v>
+        <v>12907</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26915</v>
+        <v>27639</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2132448772595939</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1411351368415437</v>
+        <v>0.1419511219214303</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2960107033833268</v>
+        <v>0.3039776033490734</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>40</v>
@@ -6638,19 +6638,19 @@
         <v>37762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27753</v>
+        <v>27797</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49925</v>
+        <v>51125</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2061662998252143</v>
+        <v>0.2061662998252144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1515211487856626</v>
+        <v>0.1517630890274875</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2725713392749002</v>
+        <v>0.2791226140435777</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>5243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1650</v>
+        <v>1337</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12488</v>
+        <v>12349</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05684097082049885</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01788482769975819</v>
+        <v>0.01449637727567888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.135391452110618</v>
+        <v>0.1338864944046629</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -6688,19 +6688,19 @@
         <v>5477</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2248</v>
+        <v>2186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11481</v>
+        <v>10923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06023714552977685</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02472330378663992</v>
+        <v>0.02403926825056796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1262651920685468</v>
+        <v>0.1201361448441683</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6709,19 +6709,19 @@
         <v>10720</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5436</v>
+        <v>5404</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19711</v>
+        <v>19302</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05852689951940689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0296787772253183</v>
+        <v>0.0295041842639925</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1076171493591978</v>
+        <v>0.1053818965001059</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>53113</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41859</v>
+        <v>42086</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64425</v>
+        <v>64861</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4597182591517231</v>
+        <v>0.459718259151723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3623096715161602</v>
+        <v>0.3642699163357684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5576275721743024</v>
+        <v>0.5613983079852245</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -6834,19 +6834,19 @@
         <v>33764</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25645</v>
+        <v>26588</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41824</v>
+        <v>42036</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3543989023842652</v>
+        <v>0.3543989023842651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.26918167121271</v>
+        <v>0.2790821647282249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4389988532792307</v>
+        <v>0.4412224105283261</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -6855,19 +6855,19 @@
         <v>86877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>73348</v>
+        <v>72540</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>101139</v>
+        <v>100428</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4121202406959017</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3479422194505035</v>
+        <v>0.3441084243524104</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4797765319659716</v>
+        <v>0.476403639077215</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>15115</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8890</v>
+        <v>8947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24672</v>
+        <v>23858</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1308297211136273</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07694881748671752</v>
+        <v>0.07743667899918075</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2135477404326746</v>
+        <v>0.2065046560122383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -6905,19 +6905,19 @@
         <v>19438</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13116</v>
+        <v>13216</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26713</v>
+        <v>26561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2040251566309699</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1376674855051916</v>
+        <v>0.1387181257293681</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2803928363317509</v>
+        <v>0.2787966281591278</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -6926,19 +6926,19 @@
         <v>34553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24619</v>
+        <v>25602</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44383</v>
+        <v>46072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1639096581505467</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1167859692695009</v>
+        <v>0.1214500442110042</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2105411335014036</v>
+        <v>0.218552797085661</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>22519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15235</v>
+        <v>14347</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>32729</v>
+        <v>32828</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1949082389846919</v>
+        <v>0.194908238984692</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1318676611041494</v>
+        <v>0.1241767577565811</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2832849498705591</v>
+        <v>0.2841416226547138</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -6976,19 +6976,19 @@
         <v>23257</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17073</v>
+        <v>16828</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32288</v>
+        <v>31482</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2441174429020465</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1792084180869833</v>
+        <v>0.1766344237216547</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3389072228428487</v>
+        <v>0.3304500093462171</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>52</v>
@@ -6997,19 +6997,19 @@
         <v>45776</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>35161</v>
+        <v>35894</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58016</v>
+        <v>59047</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2171478411636737</v>
+        <v>0.2171478411636738</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1667929642782695</v>
+        <v>0.1702688841563149</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2752103941801393</v>
+        <v>0.2801001431317994</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>19313</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11869</v>
+        <v>12403</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29823</v>
+        <v>29103</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1671638482088325</v>
+        <v>0.1671638482088326</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1027329795376146</v>
+        <v>0.107354565263913</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2581275756370011</v>
+        <v>0.2518997833250043</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -7047,19 +7047,19 @@
         <v>12505</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7320</v>
+        <v>7087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20048</v>
+        <v>19986</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1312566409634714</v>
+        <v>0.1312566409634713</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0768316943431597</v>
+        <v>0.07439160972363873</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2104316671292811</v>
+        <v>0.2097808825270482</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>33</v>
@@ -7068,19 +7068,19 @@
         <v>31818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>21521</v>
+        <v>22529</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>42784</v>
+        <v>43304</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1509359489354314</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1020881558718681</v>
+        <v>0.1068697313851381</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2029538828859426</v>
+        <v>0.2054223643334596</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>5474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2122</v>
+        <v>2096</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11936</v>
+        <v>11456</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04737993254112507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01837091432250462</v>
+        <v>0.01813832849199638</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1033124061971755</v>
+        <v>0.09915531773785209</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7118,19 +7118,19 @@
         <v>6307</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2814</v>
+        <v>2859</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>12833</v>
+        <v>13132</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06620185711924713</v>
+        <v>0.06620185711924712</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02953971637090975</v>
+        <v>0.03000495488416954</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1347038630977253</v>
+        <v>0.137842235032736</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -7139,19 +7139,19 @@
         <v>11781</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6211</v>
+        <v>5934</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19971</v>
+        <v>19951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05588631105444643</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02946484865256666</v>
+        <v>0.0281474202917566</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09473676086077379</v>
+        <v>0.0946416155650641</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>129213</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>108949</v>
+        <v>106682</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>152370</v>
+        <v>149729</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.2717649858489545</v>
+        <v>0.2717649858489544</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2291464027636234</v>
+        <v>0.2243771589791172</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3204713020749004</v>
+        <v>0.3149157202229335</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>125</v>
@@ -7264,19 +7264,19 @@
         <v>101232</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>85719</v>
+        <v>84145</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>117001</v>
+        <v>117051</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2613294966207186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2212832076566193</v>
+        <v>0.2172195744888621</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3020371614144614</v>
+        <v>0.3021655088611219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>230</v>
@@ -7285,19 +7285,19 @@
         <v>230445</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>200321</v>
+        <v>202756</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>255970</v>
+        <v>257818</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2670799016577468</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2321674638044352</v>
+        <v>0.2349895557947059</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2966638771635778</v>
+        <v>0.2988056348831876</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>68584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49425</v>
+        <v>52005</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>87530</v>
+        <v>89371</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1442489658390851</v>
+        <v>0.144248965839085</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1039518052116307</v>
+        <v>0.1093786719941406</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1840956586752772</v>
+        <v>0.1879679599971096</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>75</v>
@@ -7335,19 +7335,19 @@
         <v>54828</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42899</v>
+        <v>43772</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>68119</v>
+        <v>68498</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.141537742576093</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1107427215525096</v>
+        <v>0.112996483472536</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1758487966874191</v>
+        <v>0.1768269294115909</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>131</v>
@@ -7356,19 +7356,19 @@
         <v>123412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>105313</v>
+        <v>102840</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151202</v>
+        <v>148029</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1430317436302873</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1220552304050615</v>
+        <v>0.1191893517912387</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1752391323138309</v>
+        <v>0.1715621784265786</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>157465</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>135487</v>
+        <v>133708</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182518</v>
+        <v>183561</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3311864329396132</v>
+        <v>0.3311864329396131</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2849614453656033</v>
+        <v>0.281220733061306</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.38387928552901</v>
+        <v>0.3860729527946787</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>166</v>
@@ -7406,19 +7406,19 @@
         <v>120515</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105088</v>
+        <v>105203</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>137242</v>
+        <v>137151</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3111084406812525</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2712842570322188</v>
+        <v>0.2715811082355902</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3542899263636761</v>
+        <v>0.3540530732244827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>297</v>
@@ -7427,19 +7427,19 @@
         <v>277980</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>248812</v>
+        <v>250477</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>309479</v>
+        <v>309028</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3221722811290479</v>
+        <v>0.3221722811290478</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2883670944507427</v>
+        <v>0.2902975185874045</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3586790655641675</v>
+        <v>0.3581562886121887</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>90895</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>71856</v>
+        <v>72393</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109647</v>
+        <v>115231</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1911731961702899</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1511310695678323</v>
+        <v>0.1522589243166104</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2306141059411831</v>
+        <v>0.242358438560718</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>95</v>
@@ -7477,19 +7477,19 @@
         <v>78270</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>64785</v>
+        <v>63764</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>94094</v>
+        <v>94432</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2020539853845034</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1672426237833588</v>
+        <v>0.1646069403165974</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2429024547895577</v>
+        <v>0.2437760661213638</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>172</v>
@@ -7498,19 +7498,19 @@
         <v>169165</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>146805</v>
+        <v>147864</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>192909</v>
+        <v>196114</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1960582008327874</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1701435671424456</v>
+        <v>0.1713712706500818</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2235765256924959</v>
+        <v>0.2272912250508166</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>29301</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16810</v>
+        <v>18016</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>44998</v>
+        <v>46068</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06162641920205751</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03535588143119787</v>
+        <v>0.03789217479781797</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09464187961264527</v>
+        <v>0.09689237622258101</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -7548,19 +7548,19 @@
         <v>32528</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>23827</v>
+        <v>23179</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44669</v>
+        <v>45755</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08397033473743247</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06150954250712024</v>
+        <v>0.05983520512270453</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1153129994427602</v>
+        <v>0.1181171693394846</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>57</v>
@@ -7569,19 +7569,19 @@
         <v>61829</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>46463</v>
+        <v>45427</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>80599</v>
+        <v>81449</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07165787275013068</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05385005963127174</v>
+        <v>0.05264875475260699</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09341202302179355</v>
+        <v>0.09439766434054822</v>
       </c>
     </row>
     <row r="33">
